--- a/BOM/RCS_FULL_BOM.xlsx
+++ b/BOM/RCS_FULL_BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="23040" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>Part Name</t>
   </si>
@@ -320,12 +320,21 @@
   </si>
   <si>
     <t>1.2k</t>
+  </si>
+  <si>
+    <t>10k resistor</t>
+  </si>
+  <si>
+    <t>.1 uF capacitor</t>
+  </si>
+  <si>
+    <t>.1 uF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,18 +438,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -537,6 +546,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,6 +598,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,25 +794,26 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="110.88671875" customWidth="1"/>
     <col min="6" max="6" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -798,7 +842,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -812,7 +856,7 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -826,7 +870,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -840,7 +884,7 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -851,7 +895,7 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -865,7 +909,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -879,7 +923,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -893,7 +937,7 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -907,7 +951,7 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -921,7 +965,7 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -935,7 +979,7 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -949,7 +993,7 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -960,7 +1004,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -974,164 +1018,164 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>180</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>110</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>200</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>750</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>5</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>7</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -1139,10 +1183,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1150,178 +1194,190 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="9" t="s">
+      <c r="D32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33">
+        <v>220</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31">
-        <v>220</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="9">
-        <v>2</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>1.5</v>
       </c>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="9">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="9">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="9">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1350,8 +1406,33 @@
     <hyperlink ref="D37" r:id="rId18"/>
     <hyperlink ref="E37" r:id="rId19"/>
     <hyperlink ref="E36" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="E4" r:id="rId22"/>
+    <hyperlink ref="E5" r:id="rId23"/>
+    <hyperlink ref="E3" r:id="rId24"/>
+    <hyperlink ref="E6" r:id="rId25"/>
+    <hyperlink ref="E7" r:id="rId26"/>
+    <hyperlink ref="E8" r:id="rId27"/>
+    <hyperlink ref="E9" r:id="rId28"/>
+    <hyperlink ref="E10" r:id="rId29"/>
+    <hyperlink ref="E11" r:id="rId30"/>
+    <hyperlink ref="E13" r:id="rId31"/>
+    <hyperlink ref="E14" r:id="rId32"/>
+    <hyperlink ref="E15" r:id="rId33"/>
+    <hyperlink ref="E16" r:id="rId34"/>
+    <hyperlink ref="E17" r:id="rId35"/>
+    <hyperlink ref="E18" r:id="rId36"/>
+    <hyperlink ref="E19" r:id="rId37"/>
+    <hyperlink ref="E20" r:id="rId38"/>
+    <hyperlink ref="E21" r:id="rId39"/>
+    <hyperlink ref="E22" r:id="rId40"/>
+    <hyperlink ref="E23" r:id="rId41"/>
+    <hyperlink ref="E24" r:id="rId42"/>
+    <hyperlink ref="E26" r:id="rId43"/>
+    <hyperlink ref="E27" r:id="rId44"/>
+    <hyperlink ref="E25" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId46"/>
 </worksheet>
 </file>